--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl12-Ccr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl12-Ccr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Ccl12</t>
+  </si>
+  <si>
+    <t>Ccr2</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Ccl12</t>
-  </si>
-  <si>
-    <t>Ccr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,40 +543,40 @@
         <v>2.571444</v>
       </c>
       <c r="I2">
-        <v>0.04787301688248036</v>
+        <v>0.02394963654761903</v>
       </c>
       <c r="J2">
-        <v>0.04787301688248035</v>
+        <v>0.02394963654761903</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.01636166666666667</v>
+        <v>0.1278363333333334</v>
       </c>
       <c r="N2">
-        <v>0.049085</v>
+        <v>0.383509</v>
       </c>
       <c r="O2">
-        <v>0.0003199896946173118</v>
+        <v>0.002480915078704262</v>
       </c>
       <c r="P2">
-        <v>0.0003199896946173119</v>
+        <v>0.002480915078704262</v>
       </c>
       <c r="Q2">
-        <v>0.01402436986</v>
+        <v>0.109574657444</v>
       </c>
       <c r="R2">
-        <v>0.12621932874</v>
+        <v>0.9861719169960002</v>
       </c>
       <c r="S2">
-        <v>1.53188720526343E-05</v>
+        <v>5.941701444047474E-05</v>
       </c>
       <c r="T2">
-        <v>1.53188720526343E-05</v>
+        <v>5.941701444047474E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -605,10 +605,10 @@
         <v>2.571444</v>
       </c>
       <c r="I3">
-        <v>0.04787301688248036</v>
+        <v>0.02394963654761903</v>
       </c>
       <c r="J3">
-        <v>0.04787301688248035</v>
+        <v>0.02394963654761903</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>0.350895</v>
       </c>
       <c r="O3">
-        <v>0.002287517243409221</v>
+        <v>0.002269935507489869</v>
       </c>
       <c r="P3">
-        <v>0.002287517243409221</v>
+        <v>0.002269935507489869</v>
       </c>
       <c r="Q3">
         <v>0.10025631582</v>
@@ -635,10 +635,10 @@
         <v>0.9023068423799999</v>
       </c>
       <c r="S3">
-        <v>0.0001095103516126946</v>
+        <v>5.436413039091749E-05</v>
       </c>
       <c r="T3">
-        <v>0.0001095103516126946</v>
+        <v>5.436413039091749E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,40 +667,40 @@
         <v>2.571444</v>
       </c>
       <c r="I4">
-        <v>0.04787301688248036</v>
+        <v>0.02394963654761903</v>
       </c>
       <c r="J4">
-        <v>0.04787301688248035</v>
+        <v>0.02394963654761903</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.6714140000000001</v>
+        <v>0.04120633333333334</v>
       </c>
       <c r="N4">
-        <v>2.014242</v>
+        <v>0.123619</v>
       </c>
       <c r="O4">
-        <v>0.01313103152623741</v>
+        <v>0.0007996898146180199</v>
       </c>
       <c r="P4">
-        <v>0.01313103152623741</v>
+        <v>0.0007996898146180199</v>
       </c>
       <c r="Q4">
-        <v>0.5755011672720001</v>
+        <v>0.03531992620400001</v>
       </c>
       <c r="R4">
-        <v>5.179510505448001</v>
+        <v>0.317879335836</v>
       </c>
       <c r="S4">
-        <v>0.0006286220939399456</v>
+        <v>1.915228041093441E-05</v>
       </c>
       <c r="T4">
-        <v>0.0006286220939399455</v>
+        <v>1.915228041093441E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,10 +729,10 @@
         <v>2.571444</v>
       </c>
       <c r="I5">
-        <v>0.04787301688248036</v>
+        <v>0.02394963654761903</v>
       </c>
       <c r="J5">
-        <v>0.04787301688248035</v>
+        <v>0.02394963654761903</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>50.32711433333333</v>
+        <v>51.241888</v>
       </c>
       <c r="N5">
-        <v>150.981343</v>
+        <v>153.725664</v>
       </c>
       <c r="O5">
-        <v>0.984261461535736</v>
+        <v>0.9944494595991877</v>
       </c>
       <c r="P5">
-        <v>0.9842614615357361</v>
+        <v>0.9944494595991878</v>
       </c>
       <c r="Q5">
-        <v>43.13778539658799</v>
+        <v>43.92188181542399</v>
       </c>
       <c r="R5">
-        <v>388.240068569292</v>
+        <v>395.296936338816</v>
       </c>
       <c r="S5">
-        <v>0.04711956556487508</v>
+        <v>0.0238167031223767</v>
       </c>
       <c r="T5">
-        <v>0.04711956556487508</v>
+        <v>0.0238167031223767</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.104681666666667</v>
+        <v>34.93245566666667</v>
       </c>
       <c r="H6">
-        <v>3.314045</v>
+        <v>104.797367</v>
       </c>
       <c r="I6">
-        <v>0.06169814790222909</v>
+        <v>0.9760503634523809</v>
       </c>
       <c r="J6">
-        <v>0.06169814790222908</v>
+        <v>0.9760503634523809</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.01636166666666667</v>
+        <v>0.1278363333333334</v>
       </c>
       <c r="N6">
-        <v>0.049085</v>
+        <v>0.383509</v>
       </c>
       <c r="O6">
-        <v>0.0003199896946173118</v>
+        <v>0.002480915078704262</v>
       </c>
       <c r="P6">
-        <v>0.0003199896946173119</v>
+        <v>0.002480915078704262</v>
       </c>
       <c r="Q6">
-        <v>0.01807443320277777</v>
+        <v>4.46563704675589</v>
       </c>
       <c r="R6">
-        <v>0.162669898825</v>
+        <v>40.19073342080301</v>
       </c>
       <c r="S6">
-        <v>1.974277150568802E-05</v>
+        <v>0.002421498064263788</v>
       </c>
       <c r="T6">
-        <v>1.974277150568802E-05</v>
+        <v>0.002421498064263788</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1.104681666666667</v>
+        <v>34.93245566666667</v>
       </c>
       <c r="H7">
-        <v>3.314045</v>
+        <v>104.797367</v>
       </c>
       <c r="I7">
-        <v>0.06169814790222909</v>
+        <v>0.9760503634523809</v>
       </c>
       <c r="J7">
-        <v>0.06169814790222908</v>
+        <v>0.9760503634523809</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>0.350895</v>
       </c>
       <c r="O7">
-        <v>0.002287517243409221</v>
+        <v>0.002269935507489869</v>
       </c>
       <c r="P7">
-        <v>0.002287517243409221</v>
+        <v>0.002269935507489869</v>
       </c>
       <c r="Q7">
-        <v>0.1292090911416666</v>
+        <v>4.085874677051667</v>
       </c>
       <c r="R7">
-        <v>1.162881820275</v>
+        <v>36.772872093465</v>
       </c>
       <c r="S7">
-        <v>0.0001411355772127615</v>
+        <v>0.002215571377098951</v>
       </c>
       <c r="T7">
-        <v>0.0001411355772127615</v>
+        <v>0.002215571377098951</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>1.104681666666667</v>
+        <v>34.93245566666667</v>
       </c>
       <c r="H8">
-        <v>3.314045</v>
+        <v>104.797367</v>
       </c>
       <c r="I8">
-        <v>0.06169814790222909</v>
+        <v>0.9760503634523809</v>
       </c>
       <c r="J8">
-        <v>0.06169814790222908</v>
+        <v>0.9760503634523809</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.6714140000000001</v>
+        <v>0.04120633333333334</v>
       </c>
       <c r="N8">
-        <v>2.014242</v>
+        <v>0.123619</v>
       </c>
       <c r="O8">
-        <v>0.01313103152623741</v>
+        <v>0.0007996898146180199</v>
       </c>
       <c r="P8">
-        <v>0.01313103152623741</v>
+        <v>0.0007996898146180199</v>
       </c>
       <c r="Q8">
-        <v>0.7416987365433333</v>
+        <v>1.439438412352556</v>
       </c>
       <c r="R8">
-        <v>6.675288628890001</v>
+        <v>12.954945711173</v>
       </c>
       <c r="S8">
-        <v>0.000810160325214629</v>
+        <v>0.0007805375342070855</v>
       </c>
       <c r="T8">
-        <v>0.0008101603252146289</v>
+        <v>0.0007805375342070855</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,31 +956,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>1.104681666666667</v>
+        <v>34.93245566666667</v>
       </c>
       <c r="H9">
-        <v>3.314045</v>
+        <v>104.797367</v>
       </c>
       <c r="I9">
-        <v>0.06169814790222909</v>
+        <v>0.9760503634523809</v>
       </c>
       <c r="J9">
-        <v>0.06169814790222908</v>
+        <v>0.9760503634523809</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,276 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>50.32711433333333</v>
+        <v>51.241888</v>
       </c>
       <c r="N9">
-        <v>150.981343</v>
+        <v>153.725664</v>
       </c>
       <c r="O9">
-        <v>0.984261461535736</v>
+        <v>0.9944494595991877</v>
       </c>
       <c r="P9">
-        <v>0.9842614615357361</v>
+        <v>0.9944494595991878</v>
       </c>
       <c r="Q9">
-        <v>55.59544054027054</v>
+        <v>1790.004980836299</v>
       </c>
       <c r="R9">
-        <v>500.3589648624349</v>
+        <v>16110.04482752669</v>
       </c>
       <c r="S9">
-        <v>0.06072710922829601</v>
+        <v>0.970632756476811</v>
       </c>
       <c r="T9">
-        <v>0.06072710922829601</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>15.94278666666666</v>
-      </c>
-      <c r="H10">
-        <v>47.82836</v>
-      </c>
-      <c r="I10">
-        <v>0.8904288352152907</v>
-      </c>
-      <c r="J10">
-        <v>0.8904288352152906</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.01636166666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.049085</v>
-      </c>
-      <c r="O10">
-        <v>0.0003199896946173118</v>
-      </c>
-      <c r="P10">
-        <v>0.0003199896946173119</v>
-      </c>
-      <c r="Q10">
-        <v>0.2608505611777778</v>
-      </c>
-      <c r="R10">
-        <v>2.3476550506</v>
-      </c>
-      <c r="S10">
-        <v>0.0002849280510589895</v>
-      </c>
-      <c r="T10">
-        <v>0.0002849280510589895</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>15.94278666666666</v>
-      </c>
-      <c r="H11">
-        <v>47.82836</v>
-      </c>
-      <c r="I11">
-        <v>0.8904288352152907</v>
-      </c>
-      <c r="J11">
-        <v>0.8904288352152906</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.116965</v>
-      </c>
-      <c r="N11">
-        <v>0.350895</v>
-      </c>
-      <c r="O11">
-        <v>0.002287517243409221</v>
-      </c>
-      <c r="P11">
-        <v>0.002287517243409221</v>
-      </c>
-      <c r="Q11">
-        <v>1.864748042466666</v>
-      </c>
-      <c r="R11">
-        <v>16.7827323822</v>
-      </c>
-      <c r="S11">
-        <v>0.002036871314583765</v>
-      </c>
-      <c r="T11">
-        <v>0.002036871314583765</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>15.94278666666666</v>
-      </c>
-      <c r="H12">
-        <v>47.82836</v>
-      </c>
-      <c r="I12">
-        <v>0.8904288352152907</v>
-      </c>
-      <c r="J12">
-        <v>0.8904288352152906</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.6714140000000001</v>
-      </c>
-      <c r="N12">
-        <v>2.014242</v>
-      </c>
-      <c r="O12">
-        <v>0.01313103152623741</v>
-      </c>
-      <c r="P12">
-        <v>0.01313103152623741</v>
-      </c>
-      <c r="Q12">
-        <v>10.70421016701333</v>
-      </c>
-      <c r="R12">
-        <v>96.33789150312001</v>
-      </c>
-      <c r="S12">
-        <v>0.01169224910708284</v>
-      </c>
-      <c r="T12">
-        <v>0.01169224910708284</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>15.94278666666666</v>
-      </c>
-      <c r="H13">
-        <v>47.82836</v>
-      </c>
-      <c r="I13">
-        <v>0.8904288352152907</v>
-      </c>
-      <c r="J13">
-        <v>0.8904288352152906</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>50.32711433333333</v>
-      </c>
-      <c r="N13">
-        <v>150.981343</v>
-      </c>
-      <c r="O13">
-        <v>0.984261461535736</v>
-      </c>
-      <c r="P13">
-        <v>0.9842614615357361</v>
-      </c>
-      <c r="Q13">
-        <v>802.3544473652754</v>
-      </c>
-      <c r="R13">
-        <v>7221.190026287479</v>
-      </c>
-      <c r="S13">
-        <v>0.8764147867425651</v>
-      </c>
-      <c r="T13">
-        <v>0.876414786742565</v>
+        <v>0.9706327564768111</v>
       </c>
     </row>
   </sheetData>
